--- a/docs/testCases/secondSprint/TestCase-Home-Section-Partners-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Home-Section-Partners-Functionality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\SecondSprint\testCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD180BE-B66D-4ED6-A714-A5669049EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670D67B5-A251-4773-B4A5-40502DCE5EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="5370" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="5250" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -100,6 +100,43 @@
   </si>
   <si>
     <t>Navigation Functionality</t>
+  </si>
+  <si>
+    <t>As user I enter to the main page.</t>
+  </si>
+  <si>
+    <t>Page sholuld load without distractions</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Mobile: As user I navigate on "About us" button and button is  changing to white color. Cursor as expected changes to white hand.
+Tablet:As user I navigate on "About us" button and button is  changing to white color. Cursor as expected changes to white hand.
+Web: As user I navigate on "About us" button and button is changing to white color. Cursor as expected changes to white hand.</t>
+  </si>
+  <si>
+    <t>Navigate with cursor on section "Partners"(dark section on main page) on button "About us" it should change to white color, and curson pointer change to pointer hand.</t>
+  </si>
+  <si>
+    <t>When user navigates on "About us" button it should change from transperent color to the white. And cursor changes to whit, and cursor changes to white hand.</t>
+  </si>
+  <si>
+    <t>On section "Partners"(dark section on main page) user push button "About us" and  it should be  transferred  to "About us" page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I as user push button "About us" on main page section "Partners" and it should tranfer to "About us" page. </t>
+  </si>
+  <si>
+    <t>Mobile: I as user push button "About us" on main page section "Partners" and it should tranfer to "About us" page. Usrer transfered to "About us"page.
+Tablet: I as user push button "About us" on main page section "Partners" and it should tranfer to "About us" page. Usrer transfered to "About us"page..
+Desktop: I as user push button "About us" on main page section "Partners" and it should tranfer to "About us" page. Usrer transfered to "About us"page.</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
 </sst>
 </file>
@@ -325,29 +362,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,13 +667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
@@ -671,14 +708,14 @@
       <c r="E2" s="23"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -694,10 +731,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -722,23 +759,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -873,7 +912,9 @@
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="2"/>
@@ -950,98 +991,77 @@
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>4</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>5</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>6</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="45">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1087,18 +1107,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/secondSprint/TestCase-Home-Section-Partners-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Home-Section-Partners-Functionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670D67B5-A251-4773-B4A5-40502DCE5EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96621E28-8004-4488-9E54-AC975CB010A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="5250" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,12 +102,6 @@
     <t>Navigation Functionality</t>
   </si>
   <si>
-    <t>As user I enter to the main page.</t>
-  </si>
-  <si>
-    <t>Page sholuld load without distractions</t>
-  </si>
-  <si>
     <t>As expected</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
+  </si>
+  <si>
+    <t>Page should load</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="I20" sqref="I20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="29"/>
     </row>
@@ -913,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
@@ -996,66 +996,66 @@
         <v>1</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="I20" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
       <c r="I22" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
@@ -1095,6 +1095,10 @@
     <mergeCell ref="D18:E19"/>
     <mergeCell ref="F18:H19"/>
     <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
@@ -1103,10 +1107,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
